--- a/src/shuju.xlsx
+++ b/src/shuju.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +35,6 @@
   </si>
   <si>
     <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sa123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -403,7 +399,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -431,11 +427,11 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1">
+        <v>123</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="1">
         <v>120120</v>
@@ -443,13 +439,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1">
         <v>110110</v>
